--- a/public/files/template/inventory/permohonan_barang_detail.xlsx
+++ b/public/files/template/inventory/permohonan_barang_detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\public_html\epuskesmas_prog\dev\public\files\template\inventory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projek\newepuskesmas\public\files\template\inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>Detail Permohonan Barang</t>
+  </si>
+  <si>
+    <t>Jumlah Unit</t>
+  </si>
+  <si>
+    <t>Total Harga</t>
+  </si>
+  <si>
+    <t>[onshow.jumlahunit]</t>
+  </si>
+  <si>
+    <t>[onshow.totalharga]</t>
+  </si>
+  <si>
+    <t>Sub Total (Rp.)</t>
+  </si>
+  <si>
+    <t>Harga (Rp.)</t>
+  </si>
+  <si>
+    <t>[a.subtotal]</t>
+  </si>
+  <si>
+    <t>[a.harga]</t>
   </si>
 </sst>
 </file>
@@ -148,7 +172,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -164,12 +188,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B9:E10" totalsRowShown="0">
-  <autoFilter ref="B9:E10"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G12" totalsRowShown="0">
+  <autoFilter ref="B11:G12"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Nama Barang" dataDxfId="0"/>
     <tableColumn id="3" name="Jumlah"/>
+    <tableColumn id="5" name="Harga (Rp.)"/>
+    <tableColumn id="6" name="Sub Total (Rp.)"/>
     <tableColumn id="4" name="Keterangan"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -439,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,18 +476,20 @@
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="47.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -469,7 +497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
@@ -477,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
@@ -485,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -493,31 +521,59 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
         <v>5</v>
       </c>
     </row>
